--- a/OperationalApplicationSystem/src/main/webapp/templet/CustomsProduct.xlsx
+++ b/OperationalApplicationSystem/src/main/webapp/templet/CustomsProduct.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34C2E7A-9132-42B3-AD04-81550CA742DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaozhouhao/JAVA/OperationalApplicationSystem/OperationalApplicationSystem/src/main/webapp/templet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -93,76 +103,13 @@
   <si>
     <t>海关系统操作日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6179A-368#3/4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8411999000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃气轮机零件(输送管架)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无品牌|出口货物不能确定在最终目的国(地区)享受优惠关税|燃气轮机用,输送液体和气体|无品牌|无型号|||HUNGARY-2301613#1-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>035</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6179A-74</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无品牌|出口货物不能确定在最终目的国(地区)享受优惠关税|燃气轮机用,输送液体和气体|无品牌|无型号|||HUNGARY-2270919#3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6184-23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无品牌|出口货物不能确定在最终目的国(地区)享受优惠关税|燃气轮机用,输送液体和气体|无品牌|无型号|||MHPSA LAKE CHARLES BLEED AIR JIG PIPING UNIT#1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>61810-2 batch#2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>无品牌|出口货物不能确定在最终目的国(地区)享受优惠关税|燃气轮机用,输送液体和气体|无品牌|无型号|||SERGIPE-BRESIL batch#2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,20 +151,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -249,16 +182,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -266,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -279,24 +212,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,19 +492,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J7"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33">
+    <row r="1" spans="1:21" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,170 +568,6 @@
       <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="38.25">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="38.25">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" ht="51">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" ht="38.25">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
